--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921192.828115629</v>
+        <v>942346.5010809152</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>189902.9539564198</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.4368283879286</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>352.0426595656929</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>134.6751203255735</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>185.0635387655689</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>11.39108932486054</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9.275596830496854</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>327.1485339723819</v>
       </c>
       <c r="G8" t="n">
-        <v>401.3550844723781</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>102.2833012589123</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>53.87467807705912</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>17.13267830033018</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>99.34508049624301</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="G14" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>155.3197306044665</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.60620160013897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9918595228957</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>60.44533761123545</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>50.43151777216863</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>189.596843649344</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>297.5642569908815</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>284.5615160058697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>8.389005322401497</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>43.31785343913986</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>269.5134569480836</v>
+        <v>321.5584859445105</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.1498336210772</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>25.3159054168623</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>352.0426595656929</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>12.62825841548272</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>280.1033070984082</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3664,16 +3664,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>8.389005322401392</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>125.3363843732648</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>101.7806877295492</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>396.6749956049798</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>84.14511870180661</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.272045986318</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1933.544000781331</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="C2" t="n">
-        <v>1564.581483840919</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1206.315785234169</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>820.5275326359244</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>409.5416278463169</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.5099885583422</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,10 +4583,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,10 +4595,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
         <v>1662.48357412947</v>
@@ -4607,10 +4607,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.549250954101</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406939</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>384.396046438932</v>
       </c>
       <c r="F8" t="n">
-        <v>786.546878019087</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018223</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
         <v>709.5665374816297</v>
@@ -4960,52 +4960,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>808.6937513590204</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="C11" t="n">
-        <v>439.7312344186087</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="D11" t="n">
-        <v>439.7312344186087</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036446</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036446</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5057,34 +5057,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.730224273719</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.730224273719</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2311.667336930148</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>1958.898681660034</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X11" t="n">
-        <v>1585.432923398954</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y11" t="n">
-        <v>1195.293591423142</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235.9284171545819</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C13" t="n">
-        <v>235.9284171545819</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D13" t="n">
-        <v>235.9284171545819</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="E13" t="n">
-        <v>235.9284171545819</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="F13" t="n">
-        <v>235.9284171545819</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>235.9284171545819</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5218,31 +5218,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124031</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T13" t="n">
-        <v>235.9284171545819</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U13" t="n">
-        <v>235.9284171545819</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V13" t="n">
-        <v>235.9284171545819</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W13" t="n">
-        <v>235.9284171545819</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9284171545819</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y13" t="n">
-        <v>235.9284171545819</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1920.409918978289</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C14" t="n">
-        <v>1551.447402037877</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D14" t="n">
-        <v>1193.181703431127</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E14" t="n">
-        <v>807.3934508328825</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F14" t="n">
-        <v>396.407546043275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5276,13 +5276,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.009759042411</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942401</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1920.409918978289</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C17" t="n">
-        <v>1551.447402037877</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D17" t="n">
-        <v>1193.181703431127</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E17" t="n">
-        <v>807.3934508328825</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>396.407546043275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5513,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5555,10 +5555,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y17" t="n">
-        <v>2307.009759042411</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5604,31 +5604,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5695,28 +5695,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>352.67413830922</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>97.9896501033331</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W19" t="n">
-        <v>97.9896501033331</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X19" t="n">
-        <v>97.9896501033331</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="20">
@@ -5726,70 +5726,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.94416071721</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776798</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776798</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1933911785536</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F20" t="n">
-        <v>381.2074863889461</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
         <v>2323.683332757143</v>
@@ -5826,19 +5826,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5917,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>677.1880571638397</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>462.8996339820025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755378</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -5999,40 +5999,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2354.684526795312</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1964.5451948195</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6078,13 +6078,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W25" t="n">
-        <v>2471.7452186737</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
-        <v>2243.755667775683</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1577.945354755379</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C26" t="n">
-        <v>1208.982837814967</v>
+        <v>1509.552794371413</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082163</v>
+        <v>1151.287095764662</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>765.4988431664181</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>354.5129383768105</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036446</v>
@@ -6224,13 +6224,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6266,10 +6266,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>2354.684526795312</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1964.5451948195</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>357.2197656505684</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>209.3066720681753</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>62.41672457026496</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036446</v>
@@ -6415,19 +6415,19 @@
         <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6461,7 +6461,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733129</v>
@@ -6549,16 +6549,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464715</v>
       </c>
       <c r="C31" t="n">
         <v>53.94298182036446</v>
@@ -6649,22 +6649,22 @@
         <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>211.647186529604</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>279.3468541648868</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.915471247702</v>
+        <v>1902.75190621448</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.952954307291</v>
+        <v>1533.789389274068</v>
       </c>
       <c r="D32" t="n">
-        <v>1122.952954307291</v>
+        <v>1175.523690667318</v>
       </c>
       <c r="E32" t="n">
-        <v>737.1647017090463</v>
+        <v>789.7354380690736</v>
       </c>
       <c r="F32" t="n">
-        <v>326.1787969194388</v>
+        <v>378.749533279466</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
@@ -6737,13 +6737,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.515311311824</v>
+        <v>2289.351746278602</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6789,7 +6789,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
         <v>2188.831293537797</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6865,43 +6865,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y34" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1933.544000781331</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C35" t="n">
-        <v>1564.581483840919</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D35" t="n">
-        <v>1206.315785234169</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E35" t="n">
-        <v>820.5275326359244</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F35" t="n">
-        <v>409.5416278463169</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>529.7758821321493</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>529.7758821321493</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>529.7758821321493</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7102,43 +7102,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>698.7120650600561</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V37" t="n">
-        <v>698.7120650600561</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247702</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C38" t="n">
-        <v>1491.915471247702</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D38" t="n">
-        <v>1133.649772640952</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>747.8615200427075</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F38" t="n">
-        <v>336.8756152531</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7193,7 +7193,7 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
@@ -7248,10 +7248,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7260,16 +7260,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>507.3364050629041</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>507.3364050629041</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>357.2197656505683</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>209.3066720681752</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>62.41672457026485</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>507.3364050629041</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307291</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307291</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090463</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1722.185086336932</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U43" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1567.641263708175</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="C44" t="n">
-        <v>1198.678746767763</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="D44" t="n">
-        <v>840.4130481610125</v>
+        <v>935.7122086039806</v>
       </c>
       <c r="E44" t="n">
-        <v>454.6247955627683</v>
+        <v>549.9239560057363</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>138.9380512161287</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>138.9380512161287</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>138.9380512161287</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.380435748108</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X44" t="n">
-        <v>2344.380435748108</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y44" t="n">
-        <v>1954.241103772296</v>
+        <v>1680.577747274853</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7813,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="V46" t="n">
-        <v>438.9553738610022</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="W46" t="n">
-        <v>149.5382038240415</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10437,10 +10437,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599052</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.836063383079</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.74151045510206</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22714,16 +22714,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74592769735776</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>101.2183354764089</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>371.34275233862</v>
       </c>
       <c r="C5" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22799,10 +22799,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22960,10 +22960,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618414</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,25 +22984,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23024,19 +23024,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>79.72751176932951</v>
       </c>
       <c r="G8" t="n">
-        <v>12.42908554841694</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,7 +23185,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>304.5927444827991</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>162.5736422805987</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>128.2883697226011</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>125.6900249618413</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="G14" t="n">
-        <v>74.74425144011354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>11.99007165458445</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>74.74425144011354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23795,7 +23795,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>5.94099699593491</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23935,16 +23935,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.9784517519558</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>89.79231049789928</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>106.8644646478155</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24172,13 +24172,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>96.23367420798922</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24209,7 +24209,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874029</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>63.37316471551387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>116.2199130299135</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>85.16958467259929</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>158.9207969366494</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24655,19 +24655,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>123.928967659488</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24889,22 +24889,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>96.01048066168084</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24920,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>144.2707130727114</v>
+        <v>92.22568407628449</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,7 +25126,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>1.885271837007082</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.2687479352325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>61.74151045510206</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>132.7927896074485</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25366,13 +25366,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,10 +25391,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>133.6808629223868</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25552,16 +25552,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>158.9207969366495</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25600,22 +25600,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>96.2516047562944</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>239.9365073977428</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25682,16 +25682,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>65.52911452950175</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25840,19 +25840,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>10.20105013673168</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -25883,7 +25883,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>67.78619754305464</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -26023,10 +26023,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26071,22 +26071,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>27.8734929637009</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>131.0703856053968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806014</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806014</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758313.1631806012</v>
+        <v>758313.1631806014</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806014</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758313.1631806012</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="C2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="D2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="C2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="D2" t="n">
-        <v>289152.6100157577</v>
-      </c>
       <c r="E2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="F2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="G2" t="n">
         <v>289152.6100157577</v>
       </c>
       <c r="H2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="I2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="K2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="L2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="N2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="O2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157575</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="G4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="I4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="L4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="N4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
-      </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26485,10 +26485,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="I5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
@@ -26497,19 +26497,19 @@
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422147.4150659054</v>
+        <v>-419619.0939024632</v>
       </c>
       <c r="C6" t="n">
-        <v>167820.4641486391</v>
+        <v>170348.7853120811</v>
       </c>
       <c r="D6" t="n">
-        <v>167820.4641486391</v>
+        <v>170348.7853120813</v>
       </c>
       <c r="E6" t="n">
-        <v>201448.0641486389</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="F6" t="n">
-        <v>201448.0641486389</v>
+        <v>203976.3853120811</v>
       </c>
       <c r="G6" t="n">
-        <v>201448.0641486391</v>
+        <v>203976.3853120814</v>
       </c>
       <c r="H6" t="n">
-        <v>201448.064148639</v>
+        <v>203976.3853120814</v>
       </c>
       <c r="I6" t="n">
-        <v>201448.064148639</v>
+        <v>203976.3853120812</v>
       </c>
       <c r="J6" t="n">
-        <v>25024.84495604604</v>
+        <v>27553.16611948843</v>
       </c>
       <c r="K6" t="n">
-        <v>201448.0641486387</v>
+        <v>203976.3853120812</v>
       </c>
       <c r="L6" t="n">
-        <v>201448.064148639</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="M6" t="n">
-        <v>201448.064148639</v>
+        <v>203976.3853120814</v>
       </c>
       <c r="N6" t="n">
-        <v>201448.064148639</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="O6" t="n">
-        <v>201448.0641486391</v>
+        <v>203976.3853120812</v>
       </c>
       <c r="P6" t="n">
-        <v>201448.0641486392</v>
+        <v>203976.3853120812</v>
       </c>
     </row>
   </sheetData>
@@ -26741,13 +26741,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26805,10 +26805,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="I4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
@@ -26817,19 +26817,19 @@
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35504,7 +35504,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35735,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,7 +36209,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36446,7 +36446,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,7 +36683,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36917,7 +36917,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37157,10 +37157,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343422</v>
       </c>
       <c r="L35" t="n">
         <v>421.5361394435301</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898695</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,7 +37868,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,7 +38105,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
